--- a/Test Sequence Database.xlsx
+++ b/Test Sequence Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gecurrent.sharepoint.com/sites/InternalSite/Lachine/Eng/Specialty/Transportation Traffic/PRO-00713 TRN Traffic Full Ball VLA2 BABA/Production/Production Tower/5- HVL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\HendersonvilleTrafficTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{8D0D9F1D-42C1-4BD0-A835-75BC7499F8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA8365A6-6E78-4693-BE35-179880A634FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A477B9-B105-43B0-9EC7-54CC7AB1BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26C1854-3C8A-445A-AE84-296FD8C32AAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E26C1854-3C8A-445A-AE84-296FD8C32AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>THDLSC</t>
   </si>
@@ -795,6 +795,12 @@
   <si>
     <t>Note</t>
   </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENUM: HAND, SHORT, </t>
+  </si>
 </sst>
 </file>
 
@@ -804,7 +810,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,12 +828,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -901,10 +901,10 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,20 +1416,21 @@
   <dimension ref="A1:AZ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="7"/>
-    <col min="3" max="3" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="51" width="8.88671875" style="7"/>
-    <col min="52" max="52" width="60.77734375" style="7" customWidth="1"/>
-    <col min="53" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="13.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="7"/>
+    <col min="3" max="3" width="12.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" style="7" customWidth="1"/>
+    <col min="5" max="51" width="8.90625" style="7"/>
+    <col min="52" max="52" width="60.81640625" style="7" customWidth="1"/>
+    <col min="53" max="16384" width="8.90625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" ht="91" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -1597,8 +1598,8 @@
       <c r="C2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1745,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1755,8 +1756,8 @@
       <c r="C3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1901,7 +1902,7 @@
       </c>
       <c r="AZ3" s="8"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -2325,15 +2326,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c9f32d8f-13f3-4a1d-b7ac-afd4bec66e09">
@@ -2342,6 +2334,15 @@
     <TaxCatchAll xmlns="669018f1-ada5-4af4-865c-d31c7bf7ea64" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2364,14 +2365,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D21BC0-11BD-4B4E-9E7C-EB2E19CA438C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B266748C-60D9-4D6C-8819-DAF3446CD70A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2380,4 +2373,12 @@
     <ds:schemaRef ds:uri="669018f1-ada5-4af4-865c-d31c7bf7ea64"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D21BC0-11BD-4B4E-9E7C-EB2E19CA438C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>